--- a/2 курс/Анализ данных/15_04_gipotezy.xlsx
+++ b/2 курс/Анализ данных/15_04_gipotezy.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\University\2 курс\Анализ данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A51D4E-8E2D-4F62-B39C-277E8BBB4FAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00C950E-F33F-4596-9363-9275A6B230EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8D00C8B0-29DF-4C01-A32F-8A47755081B3}"/>
+    <workbookView minimized="1" xWindow="-7840" yWindow="2490" windowWidth="14400" windowHeight="7820" xr2:uid="{8D00C8B0-29DF-4C01-A32F-8A47755081B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -269,13 +270,299 @@
   </si>
   <si>
     <t>&lt;- 6 - число вариантов, 1 - число параметров нашего распределения, еще 1 просто по формуле</t>
+  </si>
+  <si>
+    <t>2 тип.</t>
+  </si>
+  <si>
+    <t>Известны эмпирические и теоретические частоты</t>
+  </si>
+  <si>
+    <t>Уровень значимости</t>
+  </si>
+  <si>
+    <t>3 тип.</t>
+  </si>
+  <si>
+    <t>Известны значения и частоты</t>
+  </si>
+  <si>
+    <r>
+      <t>Теоретические, n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>((m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)^2)/n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- у нормального распределения два параметра</t>
+  </si>
+  <si>
+    <r>
+      <t>Эмпирические, m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Объем выборки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chi^2 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chi^2 табл = </t>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>n0</t>
+  </si>
+  <si>
+    <t>выборочное среднее</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шаг = </t>
+  </si>
+  <si>
+    <r>
+      <t>((n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>io</t>
+    </r>
+  </si>
+  <si>
+    <t>Гипотеза H0</t>
+  </si>
+  <si>
+    <t>chi^2 =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +580,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,10 +617,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,19 +935,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C478D-1929-45F3-9FF9-21E1C09916DA}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -672,14 +968,14 @@
         <f>1-_xlfn.NORM.S.DIST(5,TRUE)</f>
         <v>2.8665157192353519E-7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -759,15 +1055,15 @@
         <v>0.12245642825298191</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:J7" si="0">POWER(2.1,F5)*EXP(-$M$7)/FACT(F5)</f>
+        <f>POWER(2.1,F5)*EXP(-$M$7)/FACT(F5)</f>
         <v>0.257158499331262</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>POWER(2.1,G5)*EXP(-$M$7)/FACT(G5)</f>
         <v>0.27001642429782513</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>POWER(2.1,H5)*EXP(-$M$7)/FACT(H5)</f>
         <v>0.18901149700847761</v>
       </c>
       <c r="I7">
@@ -802,19 +1098,19 @@
         <v>0.12245642825298191</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:J8" si="1">_xlfn.POISSON.DIST(F5,$M$7,FALSE)</f>
+        <f>_xlfn.POISSON.DIST(F5,$M$7,FALSE)</f>
         <v>0.257158499331262</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>_xlfn.POISSON.DIST(G5,$M$7,FALSE)</f>
         <v>0.27001642429782519</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>_xlfn.POISSON.DIST(H5,$M$7,FALSE)</f>
         <v>0.18901149700847761</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f>_xlfn.POISSON.DIST(I5,$M$7,FALSE)</f>
         <v>9.9231035929450762E-2</v>
       </c>
       <c r="J8">
@@ -834,27 +1130,27 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>SUM($E$6:$J$6)*E7</f>
+        <f t="shared" ref="E9:J9" si="0">SUM($E$6:$J$6)*E7</f>
         <v>12.245642825298191</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:J9" si="2">SUM($E$6:$J$6)*F7</f>
+        <f t="shared" si="0"/>
         <v>25.715849933126201</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.001642429782514</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18.90114970084776</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.9231035929450719</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.212611518000255</v>
       </c>
     </row>
@@ -867,27 +1163,27 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <f>E6-E9</f>
+        <f t="shared" ref="E10:J10" si="1">E6-E9</f>
         <v>-4.2456428252981908</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:J10" si="3">F6-F9</f>
+        <f t="shared" si="1"/>
         <v>2.2841500668737993</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.9983575702174861</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.90114970084776047</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.92310359294507194</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.21261151800025502</v>
       </c>
     </row>
@@ -896,27 +1192,27 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>E10*E10</f>
+        <f t="shared" ref="E11:J11" si="2">E10*E10</f>
         <v>18.025483000006005</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:J11" si="4">F10*F10</f>
+        <f t="shared" si="2"/>
         <v>5.2173415279995821</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15.986863259315479</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.8120707833380082</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.8521202433081011</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.5203657586372764E-2</v>
       </c>
     </row>
@@ -925,27 +1221,27 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>E11/E9</f>
+        <f t="shared" ref="E12:J12" si="3">E11/E9</f>
         <v>1.4719915693414871</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:J12" si="5">F11/F9</f>
+        <f t="shared" si="3"/>
         <v>0.20288427337876153</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.59207003058755214</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.2964094575769905E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5872351863173574E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.2761120593812911E-3</v>
       </c>
     </row>
@@ -966,18 +1262,489 @@
         <f>_xlfn.CHISQ.INV(1-M6,6-1-1)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E15)</f>
+        <v>=CHISQ.INV(1-M6,6-1-1)</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:J31" si="4">POWER(E27-E28, 2)/E28</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>2.7222222222222223</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E31:J31)</f>
+        <v>10.817460317460316</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <f>_xlfn.CHISQ.INV(1-E29,6-2-1)</f>
+        <v>9.348403604496152</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="E34" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E33)</f>
+        <v>=CHISQ.INV(1-E29,6-2-1)</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="K42">
+        <v>24</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <f>SUM(E42:M42)</f>
+        <v>200</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44">
+        <f>SUMPRODUCT(E41:M41,E42:M42)/E44</f>
+        <v>12.63</v>
+      </c>
+      <c r="M44" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L44)</f>
+        <v>=SUMPRODUCT(E41:M41,E42:M42)/E44</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45">
+        <f>L44</f>
+        <v>12.63</v>
+      </c>
+      <c r="M45" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L45)</f>
+        <v>=L44</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.CHISQ.INV(1-E43,9-2-1)</f>
+        <v>12.591587243743977</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46">
+        <f>SUMPRODUCT(E41:M41,E41:M41,E42:M42)/E44</f>
+        <v>181.56</v>
+      </c>
+      <c r="M46" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L46)</f>
+        <v>=SUMPRODUCT(E41:M41,E41:M41,E42:M42)/E44</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <f>F41-E41</f>
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47">
+        <f>SQRT(L46-POWER(L45,2))</f>
+        <v>4.6950079872136516</v>
+      </c>
+      <c r="M47" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L47)</f>
+        <v>=SQRT(L46-POWER(L45,2))</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <f>(E41-$L$44)/$L$47</f>
+        <v>-1.6251303556414565</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:M48" si="5">(F41-$L$44)/$L$47</f>
+        <v>-1.1991459898114549</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>-0.77316162398145316</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>-0.34717725815145151</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>7.8807107678550148E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.5047914735085518</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>0.93077583933855346</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>1.3567602051685552</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>1.7827445709985568</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49">
+        <f>_xlfn.NORM.S.DIST(E48,FALSE)</f>
+        <v>0.1065157018362122</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:M49" si="6">_xlfn.NORM.S.DIST(F48,FALSE)</f>
+        <v>0.19438509034657869</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>0.29587210918060047</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0.37560975601916063</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>0.39770537433676584</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>0.35121884876113058</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="6"/>
+        <v>0.25869374601274131</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.15892265202609712</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>8.1428687976698791E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <f>$E$44*$E$47*E49/$L$47</f>
+        <v>9.0748047395272806</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:M50" si="7">$E$44*$E$47*F49/$L$47</f>
+        <v>16.561001887618982</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>25.207378559216622</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>32.000776743476756</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>33.883254334806125</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>29.922747711410697</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>22.039898267885025</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>13.539713027871803</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>6.9374696016246231</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52">
+        <f>POWER(E41-E50, 2)/E50</f>
+        <v>1.8296849510107382</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:M52" si="8">POWER(F41-F50, 2)/F50</f>
+        <v>5.5197600794547332</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>10.420723406231021</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="8"/>
+        <v>13.781934962539843</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>12.870968865709285</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>7.4421106445880811</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>1.1524814789023954</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>2.2020211031517882</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="8"/>
+        <v>28.505315707462145</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <f>SUM(E52:M52)</f>
+        <v>83.725001199050041</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(E53&gt;E46,"Отвергается","Принимается")</f>
+        <v>Отвергается</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
